--- a/data/trans_orig/P24E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC883A7-42F4-4875-AD6C-D6814722806B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D288F672-60DA-462F-B499-FE393EDE9D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2161B09-B909-4D6B-ABB4-9344587500D8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6477DE2-763D-4105-8ABC-15204C69B41A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,28 +76,28 @@
     <t>31,2%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>42,89%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>Entre 5 y 1 año</t>
@@ -106,919 +106,919 @@
     <t>47,79%</t>
   </si>
   <si>
-    <t>39,08%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>Hace más de 5 años</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>Hace más de 5 años</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>32,49%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>45,12%</t>
   </si>
   <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
   </si>
   <si>
     <t>13,06%</t>
@@ -1445,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FA3CF-F872-4D2C-98E6-4AE7ACE0BBC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99957A5C-0491-4B48-904E-1F73A8EADBF2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,13 +2032,13 @@
         <v>37958</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2047,28 +2047,28 @@
         <v>16869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>54827</v>
+        <v>54826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2083,13 @@
         <v>4035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2098,13 +2098,13 @@
         <v>9394</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2113,13 +2113,13 @@
         <v>13429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,7 +2161,7 @@
         <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>117157</v>
+        <v>117156</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2184,16 +2184,16 @@
         <v>129</v>
       </c>
       <c r="D16" s="7">
-        <v>133766</v>
+        <v>133767</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2202,13 +2202,13 @@
         <v>109496</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>233</v>
@@ -2217,13 +2217,13 @@
         <v>243263</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,16 +2235,16 @@
         <v>211</v>
       </c>
       <c r="D17" s="7">
-        <v>218349</v>
+        <v>218350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -2253,13 +2253,13 @@
         <v>143085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -2268,13 +2268,13 @@
         <v>361434</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,16 +2286,16 @@
         <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>57212</v>
+        <v>57213</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -2304,13 +2304,13 @@
         <v>43421</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -2319,13 +2319,13 @@
         <v>100634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2337,7 @@
         <v>397</v>
       </c>
       <c r="D19" s="7">
-        <v>409328</v>
+        <v>409329</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2400,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E570C-4128-4A03-A082-03A4F560BE8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F688B231-E0D1-49C0-99E6-6943BE21D66C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2417,7 +2417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2524,13 +2524,13 @@
         <v>59143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -2539,13 +2539,13 @@
         <v>45383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -2554,13 +2554,13 @@
         <v>104526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2575,13 @@
         <v>69848</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -2590,13 +2590,13 @@
         <v>43599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>107</v>
@@ -2605,13 +2605,13 @@
         <v>113447</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2626,13 @@
         <v>21341</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -2641,13 +2641,13 @@
         <v>11782</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -2656,13 +2656,13 @@
         <v>33122</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2730,13 @@
         <v>150959</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -2745,13 +2745,13 @@
         <v>149216</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>283</v>
@@ -2760,13 +2760,13 @@
         <v>300175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2781,13 @@
         <v>190601</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>113</v>
@@ -2796,7 +2796,7 @@
         <v>124838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>164</v>
@@ -2939,10 +2939,10 @@
         <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -2951,13 +2951,13 @@
         <v>27950</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -2966,13 +2966,13 @@
         <v>57966</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>36446</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3002,13 +3002,13 @@
         <v>33636</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3017,13 +3017,13 @@
         <v>70082</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3038,13 @@
         <v>9396</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3053,13 +3053,13 @@
         <v>12145</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -3068,13 +3068,13 @@
         <v>21541</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,7 +3142,7 @@
         <v>240118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>203</v>
@@ -3223,13 +3223,13 @@
         <v>498969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3244,13 @@
         <v>81334</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -3259,13 +3259,13 @@
         <v>64361</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -3274,13 +3274,13 @@
         <v>145695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,7 +3336,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4414A4C0-5C2C-49DB-89C6-BE91613B54AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8934F10B-B60A-4BA5-BF8F-812E9A5F2D28}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3372,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3479,13 +3479,13 @@
         <v>16521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3494,13 +3494,13 @@
         <v>14935</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3509,13 +3509,13 @@
         <v>31455</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3530,13 @@
         <v>57697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3545,13 +3545,13 @@
         <v>32304</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
@@ -3560,13 +3560,13 @@
         <v>90001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3581,13 @@
         <v>17415</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -3596,13 +3596,13 @@
         <v>12505</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -3611,13 +3611,13 @@
         <v>29921</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3685,13 @@
         <v>95223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>94</v>
@@ -3700,13 +3700,13 @@
         <v>97265</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>184</v>
@@ -3715,13 +3715,13 @@
         <v>192488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3736,13 @@
         <v>178034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -3751,13 +3751,13 @@
         <v>145583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -3766,13 +3766,13 @@
         <v>323617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,7 +3787,7 @@
         <v>66568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>272</v>
@@ -3817,13 +3817,13 @@
         <v>110810</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3891,13 @@
         <v>18492</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -3906,13 +3906,13 @@
         <v>11512</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -3921,13 +3921,13 @@
         <v>30005</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3942,13 @@
         <v>34184</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3957,10 +3957,10 @@
         <v>29225</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>293</v>
@@ -4127,13 +4127,13 @@
         <v>253948</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4148,13 @@
         <v>269915</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4163,13 +4163,13 @@
         <v>207111</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -4178,13 +4178,13 @@
         <v>477027</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4199,13 @@
         <v>94770</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>62</v>
@@ -4214,7 +4214,7 @@
         <v>65106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>327</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D288F672-60DA-462F-B499-FE393EDE9D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BAB350-6F60-482B-B9DB-4EF6BBFE6263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6477DE2-763D-4105-8ABC-15204C69B41A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A73D1B37-0780-4B00-9A4D-D091D2884D80}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="334">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -76,964 +76,970 @@
     <t>31,2%</t>
   </si>
   <si>
-    <t>22,52%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>Entre 5 y 1 año</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>Hace más de 5 años</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
   </si>
   <si>
     <t>39,7%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>Entre 5 y 1 año</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>Hace más de 5 años</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
   </si>
   <si>
     <t>28,51%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>54,54%</t>
   </si>
   <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>53,55%</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>20,65%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99957A5C-0491-4B48-904E-1F73A8EADBF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A34B10-9D01-4B9C-B331-1A4D44C086FB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2110,7 @@
         <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2113,13 +2119,13 @@
         <v>13429</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,16 +2190,16 @@
         <v>129</v>
       </c>
       <c r="D16" s="7">
-        <v>133767</v>
+        <v>133766</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2202,13 +2208,13 @@
         <v>109496</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>233</v>
@@ -2217,13 +2223,13 @@
         <v>243263</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,16 +2241,16 @@
         <v>211</v>
       </c>
       <c r="D17" s="7">
-        <v>218350</v>
+        <v>218349</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -2253,13 +2259,13 @@
         <v>143085</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -2268,13 +2274,13 @@
         <v>361434</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,16 +2292,16 @@
         <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>57213</v>
+        <v>57212</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -2304,10 +2310,10 @@
         <v>43421</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>119</v>
@@ -2337,7 +2343,7 @@
         <v>397</v>
       </c>
       <c r="D19" s="7">
-        <v>409329</v>
+        <v>409328</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2400,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F688B231-E0D1-49C0-99E6-6943BE21D66C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0988900F-799A-4378-8EC6-59516D3FBDF7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,13 +2736,13 @@
         <v>150959</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -2745,13 +2751,13 @@
         <v>149216</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>283</v>
@@ -2760,13 +2766,13 @@
         <v>300175</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2787,13 @@
         <v>190601</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>113</v>
@@ -2796,7 +2802,7 @@
         <v>124838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>164</v>
@@ -2939,10 +2945,10 @@
         <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -2951,13 +2957,13 @@
         <v>27950</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -2966,13 +2972,13 @@
         <v>57966</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2993,13 @@
         <v>36446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3002,13 +3008,13 @@
         <v>33636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3017,13 +3023,13 @@
         <v>70082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3044,13 @@
         <v>9396</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3053,13 +3059,13 @@
         <v>12145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -3068,13 +3074,13 @@
         <v>21541</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3148,13 @@
         <v>240118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>206</v>
@@ -3157,13 +3163,13 @@
         <v>222549</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>433</v>
@@ -3172,13 +3178,13 @@
         <v>462668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3199,13 @@
         <v>296895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -3208,13 +3214,13 @@
         <v>202073</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>455</v>
@@ -3223,13 +3229,13 @@
         <v>498969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3250,13 @@
         <v>81334</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -3259,13 +3265,13 @@
         <v>64361</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -3274,13 +3280,13 @@
         <v>145695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8934F10B-B60A-4BA5-BF8F-812E9A5F2D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837AB9F8-DF84-4E11-9C58-D71AC9D43097}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3372,7 +3378,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3479,13 +3485,13 @@
         <v>16521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3494,13 +3500,13 @@
         <v>14935</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3509,13 +3515,13 @@
         <v>31455</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3536,13 @@
         <v>57697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3545,13 +3551,13 @@
         <v>32304</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
@@ -3560,13 +3566,13 @@
         <v>90001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3587,13 @@
         <v>17415</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -3596,13 +3602,13 @@
         <v>12505</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -3611,13 +3617,13 @@
         <v>29921</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3691,13 @@
         <v>95223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>94</v>
@@ -3700,13 +3706,13 @@
         <v>97265</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>184</v>
@@ -3715,13 +3721,13 @@
         <v>192488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3742,13 @@
         <v>178034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -3751,13 +3757,13 @@
         <v>145583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -3766,13 +3772,13 @@
         <v>323617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3793,13 @@
         <v>66568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3802,13 +3808,13 @@
         <v>44242</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -3817,13 +3823,13 @@
         <v>110810</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3897,13 @@
         <v>18492</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -3906,13 +3912,13 @@
         <v>11512</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -3921,13 +3927,13 @@
         <v>30005</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3948,13 @@
         <v>34184</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3957,13 +3963,13 @@
         <v>29225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -3972,13 +3978,13 @@
         <v>63409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3999,13 @@
         <v>10787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4008,13 +4014,13 @@
         <v>8358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4023,13 +4029,13 @@
         <v>19145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4103,13 @@
         <v>130236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -4112,13 +4118,13 @@
         <v>123712</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>241</v>
@@ -4127,13 +4133,13 @@
         <v>253948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4154,13 @@
         <v>269915</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4163,13 +4169,13 @@
         <v>207111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -4178,13 +4184,13 @@
         <v>477027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4205,13 @@
         <v>94770</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H18" s="7">
         <v>62</v>
@@ -4214,13 +4220,13 @@
         <v>65106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>149</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>150</v>
@@ -4229,13 +4235,13 @@
         <v>159876</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BAB350-6F60-482B-B9DB-4EF6BBFE6263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43296FEB-1A76-49FF-BDE9-88B4F1A571BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A73D1B37-0780-4B00-9A4D-D091D2884D80}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F839F8BB-1705-4479-A9D8-0E5C915ACE0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="332">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>31,2%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>42,89%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>Entre 5 y 1 año</t>
@@ -106,28 +106,28 @@
     <t>47,79%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
   </si>
   <si>
     <t>48,7%</t>
   </si>
   <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
   </si>
   <si>
     <t>Hace más de 5 años</t>
@@ -136,28 +136,28 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,877 +169,871 @@
     <t>32,6%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>31,83%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>54,85%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
   </si>
   <si>
     <t>52,6%</t>
   </si>
   <si>
-    <t>45,35%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>60,18%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>28,51%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>54,54%</t>
   </si>
   <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
     <t>49,87%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
+    <t>56,91%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A34B10-9D01-4B9C-B331-1A4D44C086FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C056AE-DE48-4FF1-BDC2-98D9F85D8434}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2038,13 +2032,13 @@
         <v>37958</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2053,28 +2047,28 @@
         <v>16869</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>54826</v>
+        <v>54827</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2083,13 @@
         <v>4035</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2104,13 +2098,13 @@
         <v>9394</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2119,13 +2113,13 @@
         <v>13429</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,7 +2161,7 @@
         <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>117156</v>
+        <v>117157</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2193,13 +2187,13 @@
         <v>133766</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2208,13 +2202,13 @@
         <v>109496</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>233</v>
@@ -2223,13 +2217,13 @@
         <v>243263</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2238,13 @@
         <v>218349</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -2259,13 +2253,13 @@
         <v>143085</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -2274,13 +2268,13 @@
         <v>361434</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2289,13 @@
         <v>57212</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -2310,13 +2304,13 @@
         <v>43421</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -2325,13 +2319,13 @@
         <v>100634</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,7 +2381,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0988900F-799A-4378-8EC6-59516D3FBDF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD95DCE8-0791-410B-A740-5088F4C1D436}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2423,7 +2417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2530,13 +2524,13 @@
         <v>59143</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -2545,13 +2539,13 @@
         <v>45383</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -2560,13 +2554,13 @@
         <v>104526</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2575,13 @@
         <v>69848</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -2596,13 +2590,13 @@
         <v>43599</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>107</v>
@@ -2611,13 +2605,13 @@
         <v>113447</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2626,13 @@
         <v>21341</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -2647,13 +2641,13 @@
         <v>11782</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -2662,13 +2656,13 @@
         <v>33122</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,7 +2730,7 @@
         <v>150959</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>152</v>
@@ -2978,7 +2972,7 @@
         <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2987,13 @@
         <v>36446</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3008,13 +3002,13 @@
         <v>33636</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3023,13 +3017,13 @@
         <v>70082</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3038,13 @@
         <v>9396</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3059,13 +3053,13 @@
         <v>12145</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -3074,13 +3068,13 @@
         <v>21541</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3142,13 @@
         <v>240118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>206</v>
@@ -3163,13 +3157,13 @@
         <v>222549</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>433</v>
@@ -3178,13 +3172,13 @@
         <v>462668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3193,13 @@
         <v>296895</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -3214,13 +3208,13 @@
         <v>202073</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>455</v>
@@ -3229,13 +3223,13 @@
         <v>498969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3244,13 @@
         <v>81334</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -3265,13 +3259,13 @@
         <v>64361</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -3280,13 +3274,13 @@
         <v>145695</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,7 +3336,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3361,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837AB9F8-DF84-4E11-9C58-D71AC9D43097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4652C41-E24E-4FF7-8B7D-8357C79A5B7D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3378,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3485,13 +3479,13 @@
         <v>16521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3500,13 +3494,13 @@
         <v>14935</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3515,13 +3509,13 @@
         <v>31455</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3530,13 @@
         <v>57697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3551,13 +3545,13 @@
         <v>32304</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
@@ -3566,13 +3560,13 @@
         <v>90001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3581,13 @@
         <v>17415</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -3602,13 +3596,13 @@
         <v>12505</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -3617,13 +3611,13 @@
         <v>29921</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3685,13 @@
         <v>95223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>94</v>
@@ -3706,13 +3700,13 @@
         <v>97265</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>184</v>
@@ -3721,13 +3715,13 @@
         <v>192488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3736,13 @@
         <v>178034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -3757,13 +3751,13 @@
         <v>145583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -3772,13 +3766,13 @@
         <v>323617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3787,13 @@
         <v>66568</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3808,13 +3802,13 @@
         <v>44242</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -3823,13 +3817,13 @@
         <v>110810</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3891,13 @@
         <v>18492</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -3912,13 +3906,13 @@
         <v>11512</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -3927,13 +3921,13 @@
         <v>30005</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3942,13 @@
         <v>34184</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3963,13 +3957,13 @@
         <v>29225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -3978,13 +3972,13 @@
         <v>63409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3993,13 @@
         <v>10787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4014,13 +4008,13 @@
         <v>8358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4029,13 +4023,13 @@
         <v>19145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4097,13 @@
         <v>130236</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -4118,13 +4112,13 @@
         <v>123712</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>241</v>
@@ -4133,13 +4127,13 @@
         <v>253948</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4148,13 @@
         <v>269915</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4169,13 +4163,13 @@
         <v>207111</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -4184,13 +4178,13 @@
         <v>477027</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4199,13 @@
         <v>94770</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H18" s="7">
         <v>62</v>
@@ -4220,13 +4214,13 @@
         <v>65106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M18" s="7">
         <v>150</v>
@@ -4235,13 +4229,13 @@
         <v>159876</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4291,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43296FEB-1A76-49FF-BDE9-88B4F1A571BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90EB7BE-F200-489E-86D9-1C892A08600F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F839F8BB-1705-4479-A9D8-0E5C915ACE0D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{726C2D3D-6CC4-4B8D-BF86-AF87E0AB89FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1445,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C056AE-DE48-4FF1-BDC2-98D9F85D8434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A672769-5C4B-4F65-A58A-CB1074B9B95D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2059,7 +2059,7 @@
         <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>54827</v>
+        <v>54826</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -2161,7 +2161,7 @@
         <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>117157</v>
+        <v>117156</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2400,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD95DCE8-0791-410B-A740-5088F4C1D436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429F0DE5-E7FE-4141-8646-87591AC3D49C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4652C41-E24E-4FF7-8B7D-8357C79A5B7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14294127-045C-403B-8127-F42B5A1C3088}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
